--- a/data/trans_dic/P40_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P40_R2-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.04591597528514214</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.07174276282744715</v>
+        <v>0.07174276282744714</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02511646239797399</v>
+        <v>0.02593291637860272</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01144919228721684</v>
+        <v>0.01143502096688798</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02737259726765088</v>
+        <v>0.02823582926126954</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.008057408105445966</v>
+        <v>0.007922067504997079</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05650186159491487</v>
+        <v>0.05643035985759823</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05177050551399888</v>
+        <v>0.05174065910421695</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02843918733814484</v>
+        <v>0.02663685473412666</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08168866678938318</v>
+        <v>0.07900939549285581</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04425206939700221</v>
+        <v>0.04373098259753345</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03621346759764722</v>
+        <v>0.0355145348411603</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03274737771546259</v>
+        <v>0.03197706097092902</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04808544493292521</v>
+        <v>0.04827944838635965</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05851989982153766</v>
+        <v>0.05790731341744298</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04020536522300251</v>
+        <v>0.04069482594378306</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07494493288053072</v>
+        <v>0.07145591001167106</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07006408575221337</v>
+        <v>0.06588164272624698</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1028712048374999</v>
+        <v>0.1053763112588225</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1033200342280074</v>
+        <v>0.1042295416157553</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07287583562060815</v>
+        <v>0.06801983326013401</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.182976113378775</v>
+        <v>0.1739183652005055</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07314297267796104</v>
+        <v>0.07305341966096818</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06545176970326631</v>
+        <v>0.06581211252507584</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06309107250205513</v>
+        <v>0.06289652660672146</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1042291511527369</v>
+        <v>0.1048228180688029</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.05459018664148341</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.06883692480181973</v>
+        <v>0.06883692480181972</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03474656052714986</v>
+        <v>0.03468762482409581</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04683520831098126</v>
+        <v>0.04670957437726114</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02973365634945757</v>
+        <v>0.03006301279378217</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04389099711308592</v>
+        <v>0.0435766995814944</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1058002951223596</v>
+        <v>0.1062924746336894</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0689488468009055</v>
+        <v>0.06884228709201648</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04457118131484843</v>
+        <v>0.04766340275808412</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04789413593737182</v>
+        <v>0.04832145158509443</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07081452652571481</v>
+        <v>0.07303634934748826</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06388864505853328</v>
+        <v>0.06313560164993756</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04317072281559271</v>
+        <v>0.04240148221876203</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05200173772861864</v>
+        <v>0.05228679713605664</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06764088151341968</v>
+        <v>0.06715798028654259</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08695806435115341</v>
+        <v>0.08672503762427987</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06557945934111341</v>
+        <v>0.06679097171910288</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1033545083613888</v>
+        <v>0.1043284060250479</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1595221962647358</v>
+        <v>0.1596947071261653</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1205047816734322</v>
+        <v>0.1168364067327101</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.08533342308788101</v>
+        <v>0.08815680405074562</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09588154951568185</v>
+        <v>0.09528702029435053</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1030294989342814</v>
+        <v>0.1031005950307013</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09410833202694828</v>
+        <v>0.09334444201927654</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07171486566432747</v>
+        <v>0.06885464108630016</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09123884013379807</v>
+        <v>0.08961280060833632</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08548267012606399</v>
+        <v>0.08646367665843088</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07610292705028375</v>
+        <v>0.07444020724567015</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05756502951889712</v>
+        <v>0.0610809301435726</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05537003862133667</v>
+        <v>0.05570256373385317</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1612556482975913</v>
+        <v>0.1600225607131598</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1337796602645549</v>
+        <v>0.1357968943001494</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0823024772634479</v>
+        <v>0.08203068639267817</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1119775266791174</v>
+        <v>0.1096934697802447</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1321624793517925</v>
+        <v>0.1317312149269995</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1108718693825099</v>
+        <v>0.1115901268594712</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07672018800958612</v>
+        <v>0.07641444888427831</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.08793908899010436</v>
+        <v>0.0905097006359606</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1378386983660644</v>
+        <v>0.1383400740524266</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1222931812689381</v>
+        <v>0.1250038749201408</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1020736112693038</v>
+        <v>0.106740517808812</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09911295281332816</v>
+        <v>0.09870095003667136</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2223709260717611</v>
+        <v>0.2219240103781798</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1923903905707239</v>
+        <v>0.1953057446208434</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.128512776390655</v>
+        <v>0.1276451903359757</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1554417416129852</v>
+        <v>0.1546968086005114</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1729371891689289</v>
+        <v>0.171487156998965</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1488683999599029</v>
+        <v>0.149216707231179</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1088230126109412</v>
+        <v>0.1094535694444724</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1203668818546831</v>
+        <v>0.1228424330346493</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.1581163861643473</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.179806190660638</v>
+        <v>0.1798061906606379</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2703684749839638</v>
@@ -1093,7 +1093,7 @@
         <v>0.2104945839927863</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2330737094933164</v>
+        <v>0.2330737094933165</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2014920311338517</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1043233919893582</v>
+        <v>0.1031471403392144</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1279376940127076</v>
+        <v>0.1240602435072933</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1253858032079623</v>
+        <v>0.1313076909252869</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.153027529542029</v>
+        <v>0.1527529619085564</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2327174475120428</v>
+        <v>0.2328123352823991</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.203539733372978</v>
+        <v>0.2050897517870952</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1782517406428066</v>
+        <v>0.1796742295512856</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2107589536369253</v>
+        <v>0.2084697134947544</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1752460351172471</v>
+        <v>0.1767447047816581</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1712830926615453</v>
+        <v>0.1732936739429814</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1641713711215201</v>
+        <v>0.1636430777842239</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1878904537412708</v>
+        <v>0.1891559018506543</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1655326868722353</v>
+        <v>0.1655183741593148</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1856877840431862</v>
+        <v>0.1868655819986889</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1857964690001343</v>
+        <v>0.1908009094390521</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.211764525989589</v>
+        <v>0.2115379402704918</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3094677064712267</v>
+        <v>0.3113093908146196</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.277326166871494</v>
+        <v>0.2770953198753516</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2467067892457095</v>
+        <v>0.2482327048785497</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2614722792084113</v>
+        <v>0.2575328225595169</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2272779609537373</v>
+        <v>0.2285806546136928</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2196715152565303</v>
+        <v>0.221974292618093</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2089843308099135</v>
+        <v>0.2059184388205755</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.227204071991886</v>
+        <v>0.2267227852962422</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2424972595412478</v>
+        <v>0.2460433618937878</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.22996033576018</v>
+        <v>0.2316770716955655</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1996560481335009</v>
+        <v>0.1979018462982588</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2626862071206766</v>
+        <v>0.2611761667123194</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3453107381976376</v>
+        <v>0.3425600301265032</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3341209533089717</v>
+        <v>0.3354011078400553</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3337662888823766</v>
+        <v>0.3361291710828823</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3246559756584894</v>
+        <v>0.324125707984797</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.304753728575577</v>
+        <v>0.3070525646691735</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.294527671914769</v>
+        <v>0.2939327136458461</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2810109224287646</v>
+        <v>0.2763077626985042</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3001058524988115</v>
+        <v>0.3007101070671424</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3337403666219887</v>
+        <v>0.3353463387350171</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3204965397156934</v>
+        <v>0.3207304939073423</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2837371067548425</v>
+        <v>0.2798266389002124</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3318918361649507</v>
+        <v>0.3299566842656919</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4375853234739204</v>
+        <v>0.4406725970225898</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4304051027047704</v>
+        <v>0.4279526566346696</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4266907182139298</v>
+        <v>0.4291014650282444</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3836596130956307</v>
+        <v>0.3849119572278651</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.372624129165157</v>
+        <v>0.3738484849956282</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3610856723339028</v>
+        <v>0.3601055105655322</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3415353765294875</v>
+        <v>0.3422282320027902</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3466611419441781</v>
+        <v>0.346164944891843</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.4041358071828484</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.3628774036485473</v>
+        <v>0.3628774036485474</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3064974668042796</v>
+        <v>0.2965694624050559</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2832466823298295</v>
+        <v>0.2821394194263301</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2537156965953488</v>
+        <v>0.2612946986945443</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2541790976942389</v>
+        <v>0.254268635307645</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5385132226443333</v>
+        <v>0.5368854248647187</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4472065770553948</v>
+        <v>0.4383128041325141</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4413769999286951</v>
+        <v>0.4419232095391582</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3955242471298693</v>
+        <v>0.3931028924229347</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.4426978793610779</v>
+        <v>0.4461010781539939</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.3792940986082571</v>
+        <v>0.3826375070344166</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3694723224861178</v>
+        <v>0.3708230573553681</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.337497809217835</v>
+        <v>0.3372747219945097</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4098947634238305</v>
+        <v>0.4062303850151269</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3979328166350966</v>
+        <v>0.4009073671226271</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3592285209697526</v>
+        <v>0.3642253427733945</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3300922921833041</v>
+        <v>0.3295606699781812</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.6406237739506156</v>
+        <v>0.6437928839066994</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5529101345536881</v>
+        <v>0.5469619121122873</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5433907777786451</v>
+        <v>0.5426372873728941</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4627765558745348</v>
+        <v>0.4580267959726128</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5178601340061044</v>
+        <v>0.5222819583185502</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4615684135198662</v>
+        <v>0.45804801405717</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4441479640846748</v>
+        <v>0.4434770943338898</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3892100361016886</v>
+        <v>0.3898143038034932</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.6406820972477695</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.6312658435556471</v>
+        <v>0.631265843555647</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.6060430575129152</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4692360159339216</v>
+        <v>0.4667817044344636</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4866471420473014</v>
+        <v>0.4836632490068318</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4266821327980779</v>
+        <v>0.4228113690023908</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4112743618182699</v>
+        <v>0.4171101279324478</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5941245546158975</v>
+        <v>0.5895176890721988</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6189990655098834</v>
+        <v>0.612605607537962</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.5857777267002632</v>
+        <v>0.5877770746470822</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5977250298632704</v>
+        <v>0.5950506007682181</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5602484390579681</v>
+        <v>0.5648079139451169</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.5807481397021149</v>
+        <v>0.584291607996389</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.5347307510684957</v>
+        <v>0.5365739883213558</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.5338636927531137</v>
+        <v>0.5358310348488097</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6021003521541831</v>
+        <v>0.6008488638550894</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6268246493563591</v>
+        <v>0.6194872615521786</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5410686558888391</v>
+        <v>0.5371053859629552</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5090477961969471</v>
+        <v>0.5066481972790418</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7016838793602967</v>
+        <v>0.7017957436759935</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7197099572987714</v>
+        <v>0.7179560848750716</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.6960737191230202</v>
+        <v>0.6971759984827414</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6669359542208325</v>
+        <v>0.6622090266235088</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6477222742715063</v>
+        <v>0.6484807930707276</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6596037205771</v>
+        <v>0.6619876705787647</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.6169684075879975</v>
+        <v>0.6206326938467071</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.5889421000424833</v>
+        <v>0.5896022490000067</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1469235348086214</v>
+        <v>0.1476316804644142</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1547903336427044</v>
+        <v>0.1568616509540331</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1474156721142257</v>
+        <v>0.14683990600901</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1747623120139627</v>
+        <v>0.1726949354520423</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2690716754429285</v>
+        <v>0.2698642362474384</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2545420811720583</v>
+        <v>0.2546412928195957</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2355410011492082</v>
+        <v>0.2366525358226369</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2634533999736892</v>
+        <v>0.263461841362173</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2129795795696373</v>
+        <v>0.213429527314259</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2099048681617678</v>
+        <v>0.2109125802299619</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1964164342721884</v>
+        <v>0.1963208416829834</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2225750091258417</v>
+        <v>0.2234473046945299</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1729439930733341</v>
+        <v>0.1731367907260616</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1824032877987775</v>
+        <v>0.1835106954056111</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1710607056332636</v>
+        <v>0.1718419085449647</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2010602502130506</v>
+        <v>0.1999442715242942</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3011307680798105</v>
+        <v>0.2998451651283331</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2851459237694252</v>
+        <v>0.2858449494333751</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2654327143255668</v>
+        <v>0.2671154570327466</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2878868107266946</v>
+        <v>0.2874052296363016</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2341695858661786</v>
+        <v>0.2336515204656683</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2298997186876897</v>
+        <v>0.2320779347550173</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.2166323961852996</v>
+        <v>0.2159155085533821</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2401859261862521</v>
+        <v>0.2416579445852227</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12409</v>
+        <v>12813</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5049</v>
+        <v>5043</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11403</v>
+        <v>11762</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3286</v>
+        <v>3231</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>26414</v>
+        <v>26381</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>21800</v>
+        <v>21788</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>11186</v>
+        <v>10477</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>29613</v>
+        <v>28642</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>42551</v>
+        <v>42050</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>31220</v>
+        <v>30618</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>26523</v>
+        <v>25899</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>37040</v>
+        <v>37190</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>28913</v>
+        <v>28610</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>17732</v>
+        <v>17948</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>31221</v>
+        <v>29767</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>28572</v>
+        <v>26866</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>48091</v>
+        <v>49262</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>43507</v>
+        <v>43890</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>28665</v>
+        <v>26755</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>66331</v>
+        <v>63047</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>70331</v>
+        <v>70245</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>56427</v>
+        <v>56738</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>51099</v>
+        <v>50941</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>80288</v>
+        <v>80746</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>25556</v>
+        <v>25512</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>31494</v>
+        <v>31409</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>17399</v>
+        <v>17592</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>20931</v>
+        <v>20781</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>66177</v>
+        <v>66485</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>41656</v>
+        <v>41592</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>24744</v>
+        <v>26461</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>23999</v>
+        <v>24213</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>96377</v>
+        <v>99401</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>81560</v>
+        <v>80599</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>49229</v>
+        <v>48351</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>50856</v>
+        <v>51135</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>49749</v>
+        <v>49394</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>58474</v>
+        <v>58318</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>38375</v>
+        <v>39084</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>49289</v>
+        <v>49753</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>99780</v>
+        <v>99888</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>72804</v>
+        <v>70588</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>47373</v>
+        <v>48941</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>48045</v>
+        <v>47747</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>140221</v>
+        <v>140318</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>120139</v>
+        <v>119164</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>81778</v>
+        <v>78517</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>89229</v>
+        <v>87639</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>54595</v>
+        <v>55222</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>51203</v>
+        <v>50084</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>38455</v>
+        <v>40804</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>34376</v>
+        <v>34582</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>111225</v>
+        <v>110375</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>94320</v>
+        <v>95742</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>53825</v>
+        <v>53647</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>69666</v>
+        <v>68245</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>175566</v>
+        <v>174993</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>152765</v>
+        <v>153755</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>101425</v>
+        <v>101021</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>109306</v>
+        <v>112501</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>88033</v>
+        <v>88353</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>82280</v>
+        <v>84104</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>68188</v>
+        <v>71305</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>61533</v>
+        <v>61277</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>153379</v>
+        <v>153071</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>135643</v>
+        <v>137699</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>84046</v>
+        <v>83479</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>96706</v>
+        <v>96243</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>229732</v>
+        <v>227806</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>205119</v>
+        <v>205599</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>143866</v>
+        <v>144699</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>149613</v>
+        <v>152690</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>53963</v>
+        <v>53355</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>78061</v>
+        <v>75696</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>80641</v>
+        <v>84449</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>107214</v>
+        <v>107021</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>119999</v>
+        <v>120048</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>125201</v>
+        <v>126154</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>114929</v>
+        <v>115846</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>155223</v>
+        <v>153537</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>181013</v>
+        <v>182561</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>209868</v>
+        <v>212331</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>211436</v>
+        <v>210755</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>270020</v>
+        <v>271838</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>85625</v>
+        <v>85617</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>113298</v>
+        <v>114016</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>119493</v>
+        <v>122712</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>148366</v>
+        <v>148207</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>159575</v>
+        <v>160524</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>170588</v>
+        <v>170446</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>159066</v>
+        <v>160050</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>192573</v>
+        <v>189672</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>234757</v>
+        <v>236103</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>269157</v>
+        <v>271978</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>269150</v>
+        <v>265202</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>326518</v>
+        <v>325826</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>93547</v>
+        <v>94915</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>98275</v>
+        <v>99009</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>94322</v>
+        <v>93493</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>160067</v>
+        <v>159147</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>139179</v>
+        <v>138070</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>149619</v>
+        <v>150193</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>165046</v>
+        <v>166215</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>197668</v>
+        <v>197346</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>240396</v>
+        <v>242209</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>257758</v>
+        <v>257238</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>271715</v>
+        <v>267167</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>365590</v>
+        <v>366326</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>128746</v>
+        <v>129365</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>136967</v>
+        <v>137067</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>134044</v>
+        <v>132196</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>202237</v>
+        <v>201058</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>176371</v>
+        <v>177615</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>192735</v>
+        <v>191637</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>210997</v>
+        <v>212189</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>233593</v>
+        <v>234356</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>293933</v>
+        <v>294899</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>316007</v>
+        <v>315149</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>330237</v>
+        <v>330907</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>422303</v>
+        <v>421699</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>89676</v>
+        <v>86771</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>87746</v>
+        <v>87403</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>84135</v>
+        <v>86649</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>103471</v>
+        <v>103508</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>184214</v>
+        <v>183657</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>158309</v>
+        <v>155161</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>164947</v>
+        <v>165152</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>173701</v>
+        <v>172637</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>280963</v>
+        <v>283123</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>251769</v>
+        <v>253988</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>260598</v>
+        <v>261550</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>285606</v>
+        <v>285417</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>119928</v>
+        <v>118856</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>123274</v>
+        <v>124195</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>119125</v>
+        <v>120782</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>134374</v>
+        <v>134158</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>219143</v>
+        <v>220227</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>195728</v>
+        <v>193622</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>203071</v>
+        <v>202790</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>203236</v>
+        <v>201150</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>328666</v>
+        <v>331472</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>306381</v>
+        <v>304044</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>313268</v>
+        <v>312795</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>329367</v>
+        <v>329879</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>98485</v>
+        <v>97970</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>121100</v>
+        <v>120357</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>109342</v>
+        <v>108350</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>127576</v>
+        <v>129387</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>198383</v>
+        <v>196845</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>240124</v>
+        <v>237644</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>233624</v>
+        <v>234421</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>277708</v>
+        <v>276466</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>304658</v>
+        <v>307137</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>369802</v>
+        <v>372058</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>350296</v>
+        <v>351504</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>413641</v>
+        <v>415166</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>126371</v>
+        <v>126108</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>155982</v>
+        <v>154156</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>138655</v>
+        <v>137640</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>157906</v>
+        <v>157161</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>234298</v>
+        <v>234335</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>279192</v>
+        <v>278512</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>277613</v>
+        <v>278053</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>309864</v>
+        <v>307668</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>352226</v>
+        <v>352638</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>420015</v>
+        <v>421533</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>404169</v>
+        <v>406570</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>456316</v>
+        <v>456828</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>480987</v>
+        <v>483305</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>523567</v>
+        <v>530573</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>497264</v>
+        <v>495322</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>617394</v>
+        <v>610090</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>908765</v>
+        <v>911442</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>899839</v>
+        <v>900189</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>827757</v>
+        <v>831663</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>983962</v>
+        <v>983993</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1416555</v>
+        <v>1419547</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1452028</v>
+        <v>1458999</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1352816</v>
+        <v>1352158</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1617591</v>
+        <v>1623931</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>566170</v>
+        <v>566801</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>616966</v>
+        <v>620711</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>577024</v>
+        <v>579659</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>710298</v>
+        <v>706356</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1017042</v>
+        <v>1012700</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1008027</v>
+        <v>1010498</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>932805</v>
+        <v>938719</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1075217</v>
+        <v>1073418</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1557492</v>
+        <v>1554046</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1590343</v>
+        <v>1605411</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1492053</v>
+        <v>1487116</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1745581</v>
+        <v>1756279</v>
       </c>
     </row>
     <row r="36">
